--- a/medicine/Psychotrope/Abbaye_d'Andechs/Abbaye_d'Andechs.xlsx
+++ b/medicine/Psychotrope/Abbaye_d'Andechs/Abbaye_d'Andechs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abbaye_d%27Andechs</t>
+          <t>Abbaye_d'Andechs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye d'Andechs est une abbaye bénédictine allemande du XVe siècle, de style Baroque Rococo à clocher à bulbe, du village d'Andechs en Bavière (40 km au sud-ouest de Munich). Haut lieu de pèlerinage bavarois avec Altötting, elle est à ce jour un prieuré de la congrégation bénédictine de Bavière, dépendante de l'abbaye Saint-Boniface de Munich. Classée Monument historique allemand (D-1-88-117-17), elle est réputée pour sa brasserie (Klosterbrauerei Andechs).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abbaye_d%27Andechs</t>
+          <t>Abbaye_d'Andechs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Xe siècle (selon la légende) le grave Carolingiens du Saint-Empire romain germanique saint Rasso d'Andechs (v900-v954) rapporte de ses pèlerinage de Rome, et pèlerinage de Jérusalem en Terre sainte, de nombreuses précieuses reliques, dont il fait don à son abbaye Saint Rasso de Grafrath (qu'il fonde à 20 km au nord d'Andechs). Son trésor est transféré par la suite à l'abbaye de Dießen am Ammersee, puis dans la chapelle saint Nicolas du château fort d'Andechs, qui domine le lac Ammer, à 10 km du lac de Starnberg, sur la route du Roi-Louis.
 			Vue d'ensemble
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abbaye_d%27Andechs</t>
+          <t>Abbaye_d'Andechs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Brasserie monastique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La célèbre brasserie de l'abbaye d'Andechs (Klosterbrauerei Andechs) est réputée auprès des pèlerins amateurs de bière. Elle produit 115 000 hectolitres par an de plusieurs types de bière, avec 20 millions € de chiffre d'affaires annuel (chiffre 2006), avec pour devise de l'Ordre de Saint-Benoît « Ora et labora » (prière et travail, en latin). L'abbaye fabrique également du beurre, du fromage, et du pain, avec environ 200 salariés pour l'exploitation agricole (culture, élevage, et fabrication de produits alimentaires traditionnels)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La célèbre brasserie de l'abbaye d'Andechs (Klosterbrauerei Andechs) est réputée auprès des pèlerins amateurs de bière. Elle produit 115 000 hectolitres par an de plusieurs types de bière, avec 20 millions € de chiffre d'affaires annuel (chiffre 2006), avec pour devise de l'Ordre de Saint-Benoît « Ora et labora » (prière et travail, en latin). L'abbaye fabrique également du beurre, du fromage, et du pain, avec environ 200 salariés pour l'exploitation agricole (culture, élevage, et fabrication de produits alimentaires traditionnels).
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abbaye_d%27Andechs</t>
+          <t>Abbaye_d'Andechs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,12 @@
           <t>Nécropole royale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye d'Andechs fait office de nécropole royale (avec celle de Saint-Michel de Munich), ou sont inhumés de nombreux membres des familles royale et aristocratique des anciens duché de Bavière et royaume de Bavière, dont Edwige de Silésie (reliques), Albert III de Bavière (fondateur de l'abbaye en 1455), onze membres de la Maison de Wittelsbach, Jean IV de Bavière, Adalbert de Bavière (1886-1970), Albert de Bavière (1905-1996), Rasso de Bavière (1926-2011), Louis de Bavière (1913-2008), etc.
-Le compositeur allemand Carl Orff (1895-1982, compositeur entre autres de Carmina burana en 1937[2], et concepteur de la pédagogie musicale Orff-Schulwerk), y est inhumé dans la chapelle de la Douleur de l'abbaye. Un important festival de musique classique « Orff in Andechs » lui a été dédié de mai à août, entre 1998 et 2015[3].
+Le compositeur allemand Carl Orff (1895-1982, compositeur entre autres de Carmina burana en 1937, et concepteur de la pédagogie musicale Orff-Schulwerk), y est inhumé dans la chapelle de la Douleur de l'abbaye. Un important festival de musique classique « Orff in Andechs » lui a été dédié de mai à août, entre 1998 et 2015.
 </t>
         </is>
       </c>
